--- a/Datos/Database by set/Set with text box/Xlsx sets/Promotional Planes (PHOP).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Promotional Planes (PHOP).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,175 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Celestine Reef</t>
+          <t>('Celestine Reef', ['Plane — Luvion', 'Creatures without flying or islandwalk can’t attack.', 'Whenever you roll {CHAOS}, until a player planeswalks, you can’t lose the game and your opponents can’t win the game.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Plane — Luvion</t>
+          <t>('Horizon Boughs', ['Plane — Pyrulea', 'All permanents untap during each player’s untap step.', 'Whenever you roll {CHAOS}, you may search your library for up to three basic land cards, put them onto the battlefield tapped, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creatures without flying or islandwalk can’t attack.</t>
+          <t>('Mirrored Depths', ['Plane — Karsus', 'Whenever a player casts a spell, that player flips a coin. If the player loses the flip, counter that spell.', 'Whenever you roll {CHAOS}, target player reveals the top card of their library. If it’s a nonland card, you may cast it without paying its mana cost.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Whenever you roll {CHAOS}, until a player planeswalks, you can’t lose the game and your opponents can’t win the game.</t>
+          <t>('Stairs to Infinity', ['Plane — Xerex', 'Players have no maximum hand size.', 'Whenever you roll the planar die, draw a card.', 'Whenever you roll {CHAOS}, reveal the top card of your planar deck. You may put it on the bottom of your planar deck.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Horizon Boughs</t>
+          <t>('Tazeem', ['Plane — Zendikar', 'Creatures can’t block.', 'Whenever you roll {CHAOS}, draw a card for each land you control.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Plane — Pyrulea</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>All permanents untap during each player’s untap step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Whenever you roll {CHAOS}, you may search your library for up to three basic land cards, put them onto the battlefield tapped, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mirrored Depths</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Plane — Karsus</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Whenever a player casts a spell, that player flips a coin. If the player loses the flip, counter that spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Whenever you roll {CHAOS}, target player reveals the top card of their library. If it’s a nonland card, you may cast it without paying its mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Stairs to Infinity</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Plane — Xerex</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Players have no maximum hand size.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Whenever you roll the planar die, draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Whenever you roll {CHAOS}, reveal the top card of your planar deck. You may put it on the bottom of your planar deck.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Tazeem</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Plane — Zendikar</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Creatures can’t block.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Whenever you roll {CHAOS}, draw a card for each land you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Tember City</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Plane — Kinshala</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Whenever a player taps a land for mana, Tember City deals 1 damage to that player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Whenever you roll {CHAOS}, each other player sacrifices a nonland permanent.</t>
+          <t>('Tember City', ['Plane — Kinshala', 'Whenever a player taps a land for mana, Tember City deals 1 damage to that player.', 'Whenever you roll {CHAOS}, each other player sacrifices a nonland permanent.'])</t>
         </is>
       </c>
     </row>
